--- a/Projetos_API/API_Parcelamentos/Files/Arquivos_gerados/Parcelas_atraso_202503.xlsx
+++ b/Projetos_API/API_Parcelamentos/Files/Arquivos_gerados/Parcelas_atraso_202503.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafaellacavalcante/Asteca/Projetos_API/API_Parcelamentos/Files/Arquivos_gerados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1074D73E-BE1F-544E-98FC-7454A443EA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC1AF9B-8212-C24C-83EC-E06C8EB5B280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>CNPJ</t>
   </si>
@@ -80,13 +80,58 @@
   </si>
   <si>
     <t>05605725000127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Razão social </t>
+  </si>
+  <si>
+    <t>REYMER DO BRASIL INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS LTDA</t>
+  </si>
+  <si>
+    <t>SUPER VAC IND E COM DE BOMBAS A VACUO LTDA</t>
+  </si>
+  <si>
+    <t>THERMO POINT REFRIGERACAO LTDA</t>
+  </si>
+  <si>
+    <t>GILVAN AUTO CENTER TECNOLOGIA AUTOMOTIVA LTDA</t>
+  </si>
+  <si>
+    <t>M.A. MATERIAIS PARA CONSTRUCAO LTDA</t>
+  </si>
+  <si>
+    <t>FRIO JET IMPLEMENTOS RODOVIARIOS LTDA</t>
+  </si>
+  <si>
+    <t>TAPERA COMERCIO LTDA</t>
+  </si>
+  <si>
+    <t>DEZI SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>CANDIDO &amp; QUEIROZ RESTAURANTE E CONVENIENCIA LTDA</t>
+  </si>
+  <si>
+    <t>KAZAK DISTRIBUIDORA E COMERCIO VAREJISTA DE PEÇAS AUTOMOTIVAS LTDA</t>
+  </si>
+  <si>
+    <t>VITA MORAES IND. E COM. TEXTIL LTDA</t>
+  </si>
+  <si>
+    <t>CSC E CARNEIRO LTDA</t>
+  </si>
+  <si>
+    <t>BQM SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>DENIX DO BRASIL INDUSTRIA QUIMICA LTDA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,19 +139,94 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -115,8 +235,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -135,10 +273,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TabelaParcelas" displayName="TabelaParcelas" ref="A1:C16">
-  <autoFilter ref="A1:C16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C16">
-    <sortCondition ref="A1:A16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TabelaParcelas" displayName="TabelaParcelas" ref="B1:D16">
+  <autoFilter ref="B1:D16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D16">
+    <sortCondition ref="B1:B16"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="CNPJ"/>
@@ -434,192 +572,241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16">
         <v>1</v>
       </c>
     </row>
